--- a/docs/import/05四川离职人员导入模板.xlsx
+++ b/docs/import/05四川离职人员导入模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>1.0</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>00008644000000002020000003</t>
+  </si>
+  <si>
+    <t>362130197323112312425</t>
   </si>
   <si>
     <t>End Mark(结束标记，勿删除)</t>
@@ -258,9 +261,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -334,7 +337,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,17 +432,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,120 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -511,127 +514,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,55 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +825,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,17 +855,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,30 +869,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,155 +896,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1142,6 +1145,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1541,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="7" s="11" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A7" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>13</v>
@@ -1657,42 +1663,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="26" t="s">
+    <row r="8" s="11" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A8" s="26">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="23">
+        <v>44567</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" s="13" customFormat="1" ht="72.95" customHeight="1" spans="1:6">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="18" customHeight="1" spans="1:6">
       <c r="A9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" s="13" customFormat="1"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" s="13" customFormat="1" ht="72.95" customHeight="1" spans="1:6">
+      <c r="A10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" s="13" customFormat="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A3:F4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C6:C7">
       <formula1>18264</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1722,7 +1746,7 @@
   <sheetData>
     <row r="1" ht="65.1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1730,21 +1754,21 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1753,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="24.95" customHeight="1" spans="1:4">
@@ -1765,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="24.95" customHeight="1" spans="1:4">
@@ -1777,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="24.95" customHeight="1" spans="1:4">
@@ -1789,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="24.95" customHeight="1" spans="1:4">
@@ -1801,15 +1825,15 @@
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1817,7 +1841,7 @@
     <row r="9" ht="24.95" customHeight="1" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1825,7 +1849,7 @@
     <row r="10" ht="24.95" customHeight="1" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1833,7 +1857,7 @@
     <row r="11" ht="24.95" customHeight="1" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1841,7 +1865,7 @@
     <row r="12" ht="24.95" customHeight="1" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1849,17 +1873,17 @@
     <row r="13" ht="24.95" customHeight="1" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1867,17 +1891,17 @@
     <row r="15" ht="45" customHeight="1" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" ht="24.95" customHeight="1" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
